--- a/election_votar_data/SATKANIA/NALUA/152382/152382_com_1154_male_without_photo_66_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/NALUA/152382/152382_com_1154_male_without_photo_66_2025-11-24.xlsx
@@ -7524,7 +7524,7 @@
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০১১</t>
+          <t>১৫২৩৮২০০০০১১</t>
         </is>
       </c>
       <c r="D169" s="4" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C286" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০১৩</t>
+          <t>১৫২৩৮২০০০০১৩</t>
         </is>
       </c>
       <c r="D286" s="4" t="inlineStr">
@@ -22560,7 +22560,7 @@
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০১০</t>
+          <t>১৫২৩৮২০০০০১০</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
@@ -22575,10 +22575,14 @@
       </c>
       <c r="F527" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ: ০৭/০৬/১৯৯১</t>
-        </is>
-      </c>
-      <c r="G527" s="3" t="inlineStr"/>
+          <t>দর্জি</t>
+        </is>
+      </c>
+      <c r="G527" s="3" t="inlineStr">
+        <is>
+          <t>০৭/০৬/১৯৯১</t>
+        </is>
+      </c>
       <c r="H527" s="5" t="inlineStr">
         <is>
           <t>তাজুর বাপের বাড়ি, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -32888,7 +32892,7 @@
       </c>
       <c r="C773" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০১২</t>
+          <t>১৫২৩৮২০০০০১২</t>
         </is>
       </c>
       <c r="D773" s="4" t="inlineStr">
@@ -46118,7 +46122,7 @@
       </c>
       <c r="C1088" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০৩০</t>
+          <t>১৫২৩৮২০০০০৩০</t>
         </is>
       </c>
       <c r="D1088" s="4" t="inlineStr">
@@ -46160,7 +46164,7 @@
       </c>
       <c r="C1089" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০৩১</t>
+          <t>১৫২৩৮২০০০০৩১</t>
         </is>
       </c>
       <c r="D1089" s="4" t="inlineStr">
@@ -46328,7 +46332,7 @@
       </c>
       <c r="C1093" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০০৯</t>
+          <t>১৫২৩৮২০০০০০৯</t>
         </is>
       </c>
       <c r="D1093" s="4" t="inlineStr">
@@ -46748,7 +46752,7 @@
       </c>
       <c r="C1103" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০১৪</t>
+          <t>১৫২৩৮২০০০০১৪</t>
         </is>
       </c>
       <c r="D1103" s="4" t="inlineStr">

--- a/election_votar_data/SATKANIA/NALUA/152382/152382_com_1154_male_without_photo_66_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/NALUA/152382/152382_com_1154_male_without_photo_66_2025-11-24.xlsx
@@ -7524,7 +7524,7 @@
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০১১</t>
+          <t>১৫২৩৮২০০০০০১১</t>
         </is>
       </c>
       <c r="D169" s="4" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C286" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০১৩</t>
+          <t>১৫২৩৮২০০০০০১৩</t>
         </is>
       </c>
       <c r="D286" s="4" t="inlineStr">
@@ -22560,7 +22560,7 @@
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০১০</t>
+          <t>১৫২৩৮২০০০০০১০</t>
         </is>
       </c>
       <c r="D527" s="4" t="inlineStr">
@@ -22575,14 +22575,10 @@
       </c>
       <c r="F527" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
-        </is>
-      </c>
-      <c r="G527" s="3" t="inlineStr">
-        <is>
-          <t>০৭/০৬/১৯৯১</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ: ০৭/০৬/১৯৯১</t>
+        </is>
+      </c>
+      <c r="G527" s="3" t="inlineStr"/>
       <c r="H527" s="5" t="inlineStr">
         <is>
           <t>তাজুর বাপের বাড়ি, নলুয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -32892,7 +32888,7 @@
       </c>
       <c r="C773" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০১২</t>
+          <t>১৫২৩৮২০০০০০১২</t>
         </is>
       </c>
       <c r="D773" s="4" t="inlineStr">
@@ -46122,7 +46118,7 @@
       </c>
       <c r="C1088" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০৩০</t>
+          <t>১৫২৩৮২০০০০০৩০</t>
         </is>
       </c>
       <c r="D1088" s="4" t="inlineStr">
@@ -46164,7 +46160,7 @@
       </c>
       <c r="C1089" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০৩১</t>
+          <t>১৫২৩৮২০০০০০৩১</t>
         </is>
       </c>
       <c r="D1089" s="4" t="inlineStr">
@@ -46332,7 +46328,7 @@
       </c>
       <c r="C1093" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০০৯</t>
+          <t>১৫২৩৮২০০০০০০৯</t>
         </is>
       </c>
       <c r="D1093" s="4" t="inlineStr">
@@ -46752,7 +46748,7 @@
       </c>
       <c r="C1103" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৮২০০০০১৪</t>
+          <t>১৫২৩৮২০০০০০১৪</t>
         </is>
       </c>
       <c r="D1103" s="4" t="inlineStr">
